--- a/PTS2022-data/2015_County-level_ASRH.xlsx
+++ b/PTS2022-data/2015_County-level_ASRH.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Planning\Health Info Systems and Reporting\POP\Pop2015\ASRH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/mary_ryan_yale_edu/Documents/Desktop/personal-code/pathwaysToScience-2022/PTS2022-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_584FFA5C8668056FBB4E5EA3FD825DAB1BC6BB78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687C91D2-A1E6-4A91-B803-4743324AB66C}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CT 2015 ASRH County" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,7 +245,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1481,6 +1494,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1490,6 +1519,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1535,26 +1568,6 @@
     </xf>
     <xf numFmtId="3" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1691,6 +1704,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1726,6 +1756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1901,11 +1948,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="V139" sqref="V139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,32 +1969,32 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+    </row>
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -1970,77 +2017,77 @@
       <c r="T2" s="5"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49" t="s">
+    <row r="3" spans="1:22" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="49" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="52" t="s">
+    <row r="4" spans="1:22" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53" t="s">
+      <c r="M4" s="58"/>
+      <c r="N4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53" t="s">
+      <c r="O4" s="58"/>
+      <c r="P4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="56" t="s">
+      <c r="S4" s="58"/>
+      <c r="T4" s="61" t="s">
         <v>35</v>
       </c>
       <c r="U4" s="9"/>
     </row>
-    <row r="5" spans="1:21" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="8" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
@@ -2071,7 +2118,7 @@
       <c r="J5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="55"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="14" t="s">
         <v>38</v>
       </c>
@@ -2096,13 +2143,13 @@
       <c r="S5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="57"/>
+      <c r="T5" s="62"/>
       <c r="U5" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -2165,9 +2212,13 @@
       <c r="U6" s="22">
         <v>10191</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
+      <c r="V6" s="5">
+        <f>SUM(U6:U24)</f>
+        <v>948053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
       <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2280,8 @@
         <v>43092</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="49"/>
       <c r="B8" s="23" t="s">
         <v>4</v>
       </c>
@@ -2292,8 +2343,8 @@
         <v>60832</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
       <c r="B9" s="23" t="s">
         <v>5</v>
       </c>
@@ -2355,8 +2406,8 @@
         <v>65583</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
       <c r="B10" s="23" t="s">
         <v>6</v>
       </c>
@@ -2418,8 +2469,8 @@
         <v>67860</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
       <c r="B11" s="23" t="s">
         <v>7</v>
       </c>
@@ -2481,8 +2532,8 @@
         <v>59348</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
+    <row r="12" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
@@ -2544,8 +2595,8 @@
         <v>53024</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
+    <row r="13" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="49"/>
       <c r="B13" s="23" t="s">
         <v>9</v>
       </c>
@@ -2607,8 +2658,8 @@
         <v>56434</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
+    <row r="14" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="49"/>
       <c r="B14" s="23" t="s">
         <v>10</v>
       </c>
@@ -2670,8 +2721,8 @@
         <v>58397</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
+    <row r="15" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
       <c r="B15" s="23" t="s">
         <v>11</v>
       </c>
@@ -2733,8 +2784,8 @@
         <v>62417</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
       <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
@@ -2796,8 +2847,8 @@
         <v>71750</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+    <row r="17" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
       <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
@@ -2859,8 +2910,8 @@
         <v>75785</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+    <row r="18" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
       <c r="B18" s="23" t="s">
         <v>14</v>
       </c>
@@ -2922,8 +2973,8 @@
         <v>69911</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
+    <row r="19" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
       <c r="B19" s="23" t="s">
         <v>15</v>
       </c>
@@ -2985,8 +3036,8 @@
         <v>55630</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
       <c r="B20" s="23" t="s">
         <v>16</v>
       </c>
@@ -3048,8 +3099,8 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
+    <row r="21" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
       <c r="B21" s="23" t="s">
         <v>17</v>
       </c>
@@ -3111,8 +3162,8 @@
         <v>31695</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
       <c r="B22" s="23" t="s">
         <v>18</v>
       </c>
@@ -3174,8 +3225,8 @@
         <v>22512</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+    <row r="23" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="49"/>
       <c r="B23" s="23" t="s">
         <v>19</v>
       </c>
@@ -3237,8 +3288,8 @@
         <v>17688</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
+    <row r="24" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
       <c r="B24" s="23" t="s">
         <v>20</v>
       </c>
@@ -3300,8 +3351,8 @@
         <v>22872</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -3364,9 +3415,13 @@
       <c r="U25" s="29">
         <v>9459</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
+      <c r="V25" s="5">
+        <f>SUM(U25:U43)</f>
+        <v>895841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="49"/>
       <c r="B26" s="23" t="s">
         <v>3</v>
       </c>
@@ -3428,8 +3483,8 @@
         <v>39053</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
+    <row r="27" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
       <c r="B27" s="23" t="s">
         <v>4</v>
       </c>
@@ -3491,8 +3546,8 @@
         <v>51851</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
+    <row r="28" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
       <c r="B28" s="23" t="s">
         <v>5</v>
       </c>
@@ -3554,8 +3609,8 @@
         <v>56469</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+    <row r="29" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
       <c r="B29" s="23" t="s">
         <v>6</v>
       </c>
@@ -3617,8 +3672,8 @@
         <v>59467</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+    <row r="30" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
       <c r="B30" s="23" t="s">
         <v>7</v>
       </c>
@@ -3680,8 +3735,8 @@
         <v>58608</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
+    <row r="31" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="49"/>
       <c r="B31" s="23" t="s">
         <v>8</v>
       </c>
@@ -3743,8 +3798,8 @@
         <v>58486</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
+    <row r="32" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="49"/>
       <c r="B32" s="23" t="s">
         <v>9</v>
       </c>
@@ -3806,8 +3861,8 @@
         <v>58338</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="49"/>
       <c r="B33" s="23" t="s">
         <v>10</v>
       </c>
@@ -3869,8 +3924,8 @@
         <v>54535</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+    <row r="34" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="49"/>
       <c r="B34" s="23" t="s">
         <v>11</v>
       </c>
@@ -3932,8 +3987,8 @@
         <v>55020</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
+    <row r="35" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="49"/>
       <c r="B35" s="23" t="s">
         <v>12</v>
       </c>
@@ -3995,8 +4050,8 @@
         <v>61768</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
+    <row r="36" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
       <c r="B36" s="23" t="s">
         <v>13</v>
       </c>
@@ -4058,8 +4113,8 @@
         <v>68588</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
+    <row r="37" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="49"/>
       <c r="B37" s="23" t="s">
         <v>14</v>
       </c>
@@ -4121,8 +4176,8 @@
         <v>66096</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="49"/>
       <c r="B38" s="23" t="s">
         <v>15</v>
       </c>
@@ -4184,8 +4239,8 @@
         <v>55530</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
+    <row r="39" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="49"/>
       <c r="B39" s="23" t="s">
         <v>16</v>
       </c>
@@ -4247,8 +4302,8 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
+    <row r="40" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="49"/>
       <c r="B40" s="23" t="s">
         <v>17</v>
       </c>
@@ -4310,8 +4365,8 @@
         <v>32460</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+    <row r="41" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="49"/>
       <c r="B41" s="23" t="s">
         <v>18</v>
       </c>
@@ -4373,8 +4428,8 @@
         <v>22932</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
+    <row r="42" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="49"/>
       <c r="B42" s="23" t="s">
         <v>19</v>
       </c>
@@ -4436,8 +4491,8 @@
         <v>18350</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="46"/>
+    <row r="43" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="50"/>
       <c r="B43" s="23" t="s">
         <v>20</v>
       </c>
@@ -4499,8 +4554,8 @@
         <v>23670</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -4563,9 +4618,13 @@
       <c r="U44" s="29">
         <v>1432</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
+      <c r="V44" s="5">
+        <f>SUM(U44:U62)</f>
+        <v>183603</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="49"/>
       <c r="B45" s="23" t="s">
         <v>3</v>
       </c>
@@ -4627,8 +4686,8 @@
         <v>6239</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="49"/>
       <c r="B46" s="23" t="s">
         <v>4</v>
       </c>
@@ -4690,8 +4749,8 @@
         <v>9142</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+    <row r="47" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="49"/>
       <c r="B47" s="23" t="s">
         <v>5</v>
       </c>
@@ -4753,8 +4812,8 @@
         <v>10904</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
+    <row r="48" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="49"/>
       <c r="B48" s="23" t="s">
         <v>6</v>
       </c>
@@ -4816,8 +4875,8 @@
         <v>11257</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
+    <row r="49" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="49"/>
       <c r="B49" s="23" t="s">
         <v>7</v>
       </c>
@@ -4879,8 +4938,8 @@
         <v>10041</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
+    <row r="50" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="49"/>
       <c r="B50" s="23" t="s">
         <v>8</v>
       </c>
@@ -4942,8 +5001,8 @@
         <v>9110</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
+    <row r="51" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="49"/>
       <c r="B51" s="23" t="s">
         <v>9</v>
       </c>
@@ -5005,8 +5064,8 @@
         <v>9129</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
+    <row r="52" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="49"/>
       <c r="B52" s="23" t="s">
         <v>10</v>
       </c>
@@ -5068,8 +5127,8 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
+    <row r="53" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="49"/>
       <c r="B53" s="23" t="s">
         <v>11</v>
       </c>
@@ -5131,8 +5190,8 @@
         <v>10531</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
+    <row r="54" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="49"/>
       <c r="B54" s="23" t="s">
         <v>12</v>
       </c>
@@ -5194,8 +5253,8 @@
         <v>14057</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
+    <row r="55" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="49"/>
       <c r="B55" s="23" t="s">
         <v>13</v>
       </c>
@@ -5257,8 +5316,8 @@
         <v>16335</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
+    <row r="56" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="49"/>
       <c r="B56" s="23" t="s">
         <v>14</v>
       </c>
@@ -5320,8 +5379,8 @@
         <v>16765</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
+    <row r="57" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="49"/>
       <c r="B57" s="23" t="s">
         <v>15</v>
       </c>
@@ -5383,8 +5442,8 @@
         <v>14412</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
+    <row r="58" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="49"/>
       <c r="B58" s="23" t="s">
         <v>16</v>
       </c>
@@ -5446,8 +5505,8 @@
         <v>11853</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
+    <row r="59" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="49"/>
       <c r="B59" s="23" t="s">
         <v>17</v>
       </c>
@@ -5509,8 +5568,8 @@
         <v>8464</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
+    <row r="60" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="49"/>
       <c r="B60" s="23" t="s">
         <v>18</v>
       </c>
@@ -5572,8 +5631,8 @@
         <v>5619</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="45"/>
+    <row r="61" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="49"/>
       <c r="B61" s="23" t="s">
         <v>19</v>
       </c>
@@ -5635,8 +5694,8 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
+    <row r="62" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="50"/>
       <c r="B62" s="23" t="s">
         <v>20</v>
       </c>
@@ -5698,8 +5757,8 @@
         <v>4974</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="44" t="s">
+    <row r="63" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -5762,9 +5821,13 @@
       <c r="U63" s="29">
         <v>1389</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
+      <c r="V63" s="5">
+        <f>SUM(U63:U81)</f>
+        <v>164063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="49"/>
       <c r="B64" s="23" t="s">
         <v>3</v>
       </c>
@@ -5827,7 +5890,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
+      <c r="A65" s="49"/>
       <c r="B65" s="23" t="s">
         <v>4</v>
       </c>
@@ -5890,7 +5953,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
+      <c r="A66" s="49"/>
       <c r="B66" s="23" t="s">
         <v>5</v>
       </c>
@@ -5953,7 +6016,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="45"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="23" t="s">
         <v>6</v>
       </c>
@@ -6016,7 +6079,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
+      <c r="A68" s="49"/>
       <c r="B68" s="23" t="s">
         <v>7</v>
       </c>
@@ -6079,7 +6142,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="45"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="23" t="s">
         <v>8</v>
       </c>
@@ -6142,7 +6205,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="45"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="23" t="s">
         <v>9</v>
       </c>
@@ -6205,7 +6268,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="45"/>
+      <c r="A71" s="49"/>
       <c r="B71" s="23" t="s">
         <v>10</v>
       </c>
@@ -6268,7 +6331,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="45"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="23" t="s">
         <v>11</v>
       </c>
@@ -6331,7 +6394,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="45"/>
+      <c r="A73" s="49"/>
       <c r="B73" s="23" t="s">
         <v>12</v>
       </c>
@@ -6394,7 +6457,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="45"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="23" t="s">
         <v>13</v>
       </c>
@@ -6457,7 +6520,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="45"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="23" t="s">
         <v>14</v>
       </c>
@@ -6520,7 +6583,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="45"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="23" t="s">
         <v>15</v>
       </c>
@@ -6583,7 +6646,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="45"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="23" t="s">
         <v>16</v>
       </c>
@@ -6646,7 +6709,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="45"/>
+      <c r="A78" s="49"/>
       <c r="B78" s="23" t="s">
         <v>17</v>
       </c>
@@ -6709,7 +6772,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="45"/>
+      <c r="A79" s="49"/>
       <c r="B79" s="23" t="s">
         <v>18</v>
       </c>
@@ -6772,7 +6835,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="45"/>
+      <c r="A80" s="49"/>
       <c r="B80" s="23" t="s">
         <v>19</v>
       </c>
@@ -6834,8 +6897,8 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
+    <row r="81" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="50"/>
       <c r="B81" s="23" t="s">
         <v>20</v>
       </c>
@@ -6897,8 +6960,8 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="44" t="s">
+    <row r="82" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B82" s="23" t="s">
@@ -6961,9 +7024,13 @@
       <c r="U82" s="29">
         <v>9007</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="45"/>
+      <c r="V82" s="5">
+        <f>SUM(U82:U100)</f>
+        <v>859470</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="49"/>
       <c r="B83" s="23" t="s">
         <v>3</v>
       </c>
@@ -7025,8 +7092,8 @@
         <v>36262</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="45"/>
+    <row r="84" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="49"/>
       <c r="B84" s="23" t="s">
         <v>4</v>
       </c>
@@ -7088,8 +7155,8 @@
         <v>48079</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="45"/>
+    <row r="85" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="49"/>
       <c r="B85" s="23" t="s">
         <v>5</v>
       </c>
@@ -7151,8 +7218,8 @@
         <v>51780</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="45"/>
+    <row r="86" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="49"/>
       <c r="B86" s="23" t="s">
         <v>6</v>
       </c>
@@ -7214,8 +7281,8 @@
         <v>60295</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="45"/>
+    <row r="87" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="49"/>
       <c r="B87" s="23" t="s">
         <v>7</v>
       </c>
@@ -7277,8 +7344,8 @@
         <v>60580</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="45"/>
+    <row r="88" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="49"/>
       <c r="B88" s="23" t="s">
         <v>8</v>
       </c>
@@ -7340,8 +7407,8 @@
         <v>57838</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="45"/>
+    <row r="89" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="49"/>
       <c r="B89" s="23" t="s">
         <v>9</v>
       </c>
@@ -7403,8 +7470,8 @@
         <v>55540</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="45"/>
+    <row r="90" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="49"/>
       <c r="B90" s="23" t="s">
         <v>10</v>
       </c>
@@ -7466,8 +7533,8 @@
         <v>50701</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="45"/>
+    <row r="91" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="49"/>
       <c r="B91" s="23" t="s">
         <v>11</v>
       </c>
@@ -7529,8 +7596,8 @@
         <v>51407</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="45"/>
+    <row r="92" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="49"/>
       <c r="B92" s="23" t="s">
         <v>12</v>
       </c>
@@ -7592,8 +7659,8 @@
         <v>59662</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="45"/>
+    <row r="93" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="49"/>
       <c r="B93" s="23" t="s">
         <v>13</v>
       </c>
@@ -7655,8 +7722,8 @@
         <v>64595</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="45"/>
+    <row r="94" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="49"/>
       <c r="B94" s="23" t="s">
         <v>14</v>
       </c>
@@ -7718,8 +7785,8 @@
         <v>63374</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="45"/>
+    <row r="95" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="49"/>
       <c r="B95" s="23" t="s">
         <v>15</v>
       </c>
@@ -7781,8 +7848,8 @@
         <v>53297</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="45"/>
+    <row r="96" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="49"/>
       <c r="B96" s="23" t="s">
         <v>16</v>
       </c>
@@ -7844,8 +7911,8 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="45"/>
+    <row r="97" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="49"/>
       <c r="B97" s="23" t="s">
         <v>17</v>
       </c>
@@ -7907,8 +7974,8 @@
         <v>31627</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="45"/>
+    <row r="98" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="49"/>
       <c r="B98" s="23" t="s">
         <v>18</v>
       </c>
@@ -7970,8 +8037,8 @@
         <v>21628</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="45"/>
+    <row r="99" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="49"/>
       <c r="B99" s="23" t="s">
         <v>19</v>
       </c>
@@ -8033,8 +8100,8 @@
         <v>17213</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="46"/>
+    <row r="100" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="50"/>
       <c r="B100" s="23" t="s">
         <v>20</v>
       </c>
@@ -8096,8 +8163,8 @@
         <v>22254</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="44" t="s">
+    <row r="101" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="48" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="23" t="s">
@@ -8160,9 +8227,13 @@
       <c r="U101" s="29">
         <v>2749</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="45"/>
+      <c r="V101" s="5">
+        <f>SUM(U101:U119)</f>
+        <v>271863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="49"/>
       <c r="B102" s="23" t="s">
         <v>3</v>
       </c>
@@ -8224,8 +8295,8 @@
         <v>10976</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="45"/>
+    <row r="103" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="49"/>
       <c r="B103" s="23" t="s">
         <v>4</v>
       </c>
@@ -8287,8 +8358,8 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="45"/>
+    <row r="104" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="49"/>
       <c r="B104" s="23" t="s">
         <v>5</v>
       </c>
@@ -8350,8 +8421,8 @@
         <v>16026</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="45"/>
+    <row r="105" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="49"/>
       <c r="B105" s="23" t="s">
         <v>6</v>
       </c>
@@ -8413,8 +8484,8 @@
         <v>17720</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="45"/>
+    <row r="106" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="49"/>
       <c r="B106" s="23" t="s">
         <v>7</v>
       </c>
@@ -8476,8 +8547,8 @@
         <v>20754</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
+    <row r="107" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="49"/>
       <c r="B107" s="23" t="s">
         <v>8</v>
       </c>
@@ -8539,8 +8610,8 @@
         <v>18227</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
+    <row r="108" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="49"/>
       <c r="B108" s="23" t="s">
         <v>9</v>
       </c>
@@ -8602,8 +8673,8 @@
         <v>16677</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
+    <row r="109" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="49"/>
       <c r="B109" s="23" t="s">
         <v>10</v>
       </c>
@@ -8665,8 +8736,8 @@
         <v>15312</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="45"/>
+    <row r="110" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="49"/>
       <c r="B110" s="23" t="s">
         <v>11</v>
       </c>
@@ -8728,8 +8799,8 @@
         <v>15479</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="45"/>
+    <row r="111" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="49"/>
       <c r="B111" s="23" t="s">
         <v>12</v>
       </c>
@@ -8791,8 +8862,8 @@
         <v>18563</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="45"/>
+    <row r="112" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="49"/>
       <c r="B112" s="23" t="s">
         <v>13</v>
       </c>
@@ -8854,8 +8925,8 @@
         <v>21083</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="45"/>
+    <row r="113" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="49"/>
       <c r="B113" s="23" t="s">
         <v>14</v>
       </c>
@@ -8917,8 +8988,8 @@
         <v>20929</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="45"/>
+    <row r="114" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="49"/>
       <c r="B114" s="23" t="s">
         <v>15</v>
       </c>
@@ -8980,8 +9051,8 @@
         <v>17874</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="45"/>
+    <row r="115" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="49"/>
       <c r="B115" s="23" t="s">
         <v>16</v>
       </c>
@@ -9043,8 +9114,8 @@
         <v>14827</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="45"/>
+    <row r="116" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="49"/>
       <c r="B116" s="23" t="s">
         <v>17</v>
       </c>
@@ -9106,8 +9177,8 @@
         <v>10973</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="45"/>
+    <row r="117" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="49"/>
       <c r="B117" s="23" t="s">
         <v>18</v>
       </c>
@@ -9169,8 +9240,8 @@
         <v>7224</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="45"/>
+    <row r="118" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="49"/>
       <c r="B118" s="23" t="s">
         <v>19</v>
       </c>
@@ -9232,8 +9303,8 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="46"/>
+    <row r="119" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="50"/>
       <c r="B119" s="23" t="s">
         <v>20</v>
       </c>
@@ -9295,8 +9366,8 @@
         <v>6466</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="44" t="s">
+    <row r="120" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B120" s="23" t="s">
@@ -9359,9 +9430,13 @@
       <c r="U120" s="29">
         <v>1127</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="45"/>
+      <c r="V120" s="5">
+        <f>SUM(U120:U138)</f>
+        <v>151420</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="49"/>
       <c r="B121" s="23" t="s">
         <v>3</v>
       </c>
@@ -9423,8 +9498,8 @@
         <v>4787</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="45"/>
+    <row r="122" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="49"/>
       <c r="B122" s="23" t="s">
         <v>4</v>
       </c>
@@ -9486,8 +9561,8 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="45"/>
+    <row r="123" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="49"/>
       <c r="B123" s="23" t="s">
         <v>5</v>
       </c>
@@ -9549,8 +9624,8 @@
         <v>8502</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="45"/>
+    <row r="124" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="49"/>
       <c r="B124" s="23" t="s">
         <v>6</v>
       </c>
@@ -9612,8 +9687,8 @@
         <v>14902</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="45"/>
+    <row r="125" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="49"/>
       <c r="B125" s="23" t="s">
         <v>7</v>
       </c>
@@ -9675,8 +9750,8 @@
         <v>19455</v>
       </c>
     </row>
-    <row r="126" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="45"/>
+    <row r="126" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="49"/>
       <c r="B126" s="23" t="s">
         <v>8</v>
       </c>
@@ -9738,8 +9813,8 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="127" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="45"/>
+    <row r="127" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="49"/>
       <c r="B127" s="23" t="s">
         <v>9</v>
       </c>
@@ -9801,8 +9876,8 @@
         <v>7922</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="45"/>
+    <row r="128" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="49"/>
       <c r="B128" s="23" t="s">
         <v>10</v>
       </c>
@@ -9864,8 +9939,8 @@
         <v>7466</v>
       </c>
     </row>
-    <row r="129" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="45"/>
+    <row r="129" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="49"/>
       <c r="B129" s="23" t="s">
         <v>11</v>
       </c>
@@ -9927,8 +10002,8 @@
         <v>8216</v>
       </c>
     </row>
-    <row r="130" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="45"/>
+    <row r="130" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="49"/>
       <c r="B130" s="23" t="s">
         <v>12</v>
       </c>
@@ -9990,8 +10065,8 @@
         <v>10056</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="45"/>
+    <row r="131" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="49"/>
       <c r="B131" s="23" t="s">
         <v>13</v>
       </c>
@@ -10053,8 +10128,8 @@
         <v>11566</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="45"/>
+    <row r="132" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="49"/>
       <c r="B132" s="23" t="s">
         <v>14</v>
       </c>
@@ -10116,8 +10191,8 @@
         <v>11414</v>
       </c>
     </row>
-    <row r="133" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="45"/>
+    <row r="133" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="49"/>
       <c r="B133" s="23" t="s">
         <v>15</v>
       </c>
@@ -10179,8 +10254,8 @@
         <v>9145</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="45"/>
+    <row r="134" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="49"/>
       <c r="B134" s="23" t="s">
         <v>16</v>
       </c>
@@ -10242,8 +10317,8 @@
         <v>7324</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="45"/>
+    <row r="135" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="49"/>
       <c r="B135" s="23" t="s">
         <v>17</v>
       </c>
@@ -10305,8 +10380,8 @@
         <v>5533</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A136" s="45"/>
+    <row r="136" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="49"/>
       <c r="B136" s="23" t="s">
         <v>18</v>
       </c>
@@ -10368,8 +10443,8 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="45"/>
+    <row r="137" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="49"/>
       <c r="B137" s="23" t="s">
         <v>19</v>
       </c>
@@ -10431,8 +10506,8 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="138" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A138" s="46"/>
+    <row r="138" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="50"/>
       <c r="B138" s="23" t="s">
         <v>20</v>
       </c>
@@ -10494,8 +10569,8 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="139" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="44" t="s">
+    <row r="139" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="48" t="s">
         <v>27</v>
       </c>
       <c r="B139" s="23" t="s">
@@ -10558,9 +10633,13 @@
       <c r="U139" s="29">
         <v>1132</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="45"/>
+      <c r="V139" s="5">
+        <f>SUM(U139:U157)</f>
+        <v>116573</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="49"/>
       <c r="B140" s="23" t="s">
         <v>3</v>
       </c>
@@ -10622,8 +10701,8 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="45"/>
+    <row r="141" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="49"/>
       <c r="B141" s="23" t="s">
         <v>4</v>
       </c>
@@ -10685,8 +10764,8 @@
         <v>6323</v>
       </c>
     </row>
-    <row r="142" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="45"/>
+    <row r="142" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="49"/>
       <c r="B142" s="23" t="s">
         <v>5</v>
       </c>
@@ -10748,8 +10827,8 @@
         <v>6963</v>
       </c>
     </row>
-    <row r="143" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="45"/>
+    <row r="143" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="49"/>
       <c r="B143" s="23" t="s">
         <v>6</v>
       </c>
@@ -10811,8 +10890,8 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="144" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A144" s="45"/>
+    <row r="144" spans="1:22" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="49"/>
       <c r="B144" s="23" t="s">
         <v>7</v>
       </c>
@@ -10875,7 +10954,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A145" s="45"/>
+      <c r="A145" s="49"/>
       <c r="B145" s="23" t="s">
         <v>8</v>
       </c>
@@ -10938,7 +11017,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="45"/>
+      <c r="A146" s="49"/>
       <c r="B146" s="23" t="s">
         <v>9</v>
       </c>
@@ -11001,7 +11080,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A147" s="45"/>
+      <c r="A147" s="49"/>
       <c r="B147" s="23" t="s">
         <v>10</v>
       </c>
@@ -11064,7 +11143,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A148" s="45"/>
+      <c r="A148" s="49"/>
       <c r="B148" s="23" t="s">
         <v>11</v>
       </c>
@@ -11127,7 +11206,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A149" s="45"/>
+      <c r="A149" s="49"/>
       <c r="B149" s="23" t="s">
         <v>12</v>
       </c>
@@ -11190,7 +11269,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="45"/>
+      <c r="A150" s="49"/>
       <c r="B150" s="23" t="s">
         <v>13</v>
       </c>
@@ -11253,7 +11332,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A151" s="45"/>
+      <c r="A151" s="49"/>
       <c r="B151" s="23" t="s">
         <v>14</v>
       </c>
@@ -11316,7 +11395,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="45"/>
+      <c r="A152" s="49"/>
       <c r="B152" s="23" t="s">
         <v>15</v>
       </c>
@@ -11379,7 +11458,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="45"/>
+      <c r="A153" s="49"/>
       <c r="B153" s="23" t="s">
         <v>16</v>
       </c>
@@ -11442,7 +11521,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="45"/>
+      <c r="A154" s="49"/>
       <c r="B154" s="23" t="s">
         <v>17</v>
       </c>
@@ -11505,7 +11584,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A155" s="45"/>
+      <c r="A155" s="49"/>
       <c r="B155" s="23" t="s">
         <v>18</v>
       </c>
@@ -11568,7 +11647,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A156" s="45"/>
+      <c r="A156" s="49"/>
       <c r="B156" s="23" t="s">
         <v>19</v>
       </c>
@@ -11631,7 +11710,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="62"/>
+      <c r="A157" s="51"/>
       <c r="B157" s="30" t="s">
         <v>20</v>
       </c>
@@ -11694,10 +11773,10 @@
       </c>
     </row>
     <row r="158" spans="1:21" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="58" t="s">
+      <c r="A158" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="59"/>
+      <c r="B158" s="45"/>
       <c r="C158" s="37">
         <v>1206913</v>
       </c>
@@ -11757,243 +11836,233 @@
       </c>
     </row>
     <row r="160" spans="1:21" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="60" t="s">
+      <c r="A160" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="60"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="60"/>
-      <c r="I160" s="60"/>
-      <c r="J160" s="60"/>
-      <c r="K160" s="60"/>
-      <c r="L160" s="60"/>
-      <c r="M160" s="60"/>
-      <c r="N160" s="60"/>
-      <c r="O160" s="60"/>
-      <c r="P160" s="60"/>
-      <c r="Q160" s="60"/>
-      <c r="R160" s="60"/>
-      <c r="S160" s="60"/>
-      <c r="T160" s="60"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="46"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="46"/>
+      <c r="J160" s="46"/>
+      <c r="K160" s="46"/>
+      <c r="L160" s="46"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="46"/>
+      <c r="O160" s="46"/>
+      <c r="P160" s="46"/>
+      <c r="Q160" s="46"/>
+      <c r="R160" s="46"/>
+      <c r="S160" s="46"/>
+      <c r="T160" s="46"/>
     </row>
     <row r="161" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="60"/>
-      <c r="B161" s="60"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="60"/>
-      <c r="K161" s="60"/>
-      <c r="L161" s="60"/>
-      <c r="M161" s="60"/>
-      <c r="N161" s="60"/>
-      <c r="O161" s="60"/>
-      <c r="P161" s="60"/>
-      <c r="Q161" s="60"/>
-      <c r="R161" s="60"/>
-      <c r="S161" s="60"/>
-      <c r="T161" s="60"/>
+      <c r="A161" s="46"/>
+      <c r="B161" s="46"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
+      <c r="I161" s="46"/>
+      <c r="J161" s="46"/>
+      <c r="K161" s="46"/>
+      <c r="L161" s="46"/>
+      <c r="M161" s="46"/>
+      <c r="N161" s="46"/>
+      <c r="O161" s="46"/>
+      <c r="P161" s="46"/>
+      <c r="Q161" s="46"/>
+      <c r="R161" s="46"/>
+      <c r="S161" s="46"/>
+      <c r="T161" s="46"/>
     </row>
     <row r="162" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="60"/>
-      <c r="B162" s="60"/>
-      <c r="C162" s="60"/>
-      <c r="D162" s="60"/>
-      <c r="E162" s="60"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="60"/>
-      <c r="I162" s="60"/>
-      <c r="J162" s="60"/>
-      <c r="K162" s="60"/>
-      <c r="L162" s="60"/>
-      <c r="M162" s="60"/>
-      <c r="N162" s="60"/>
-      <c r="O162" s="60"/>
-      <c r="P162" s="60"/>
-      <c r="Q162" s="60"/>
-      <c r="R162" s="60"/>
-      <c r="S162" s="60"/>
-      <c r="T162" s="60"/>
+      <c r="A162" s="46"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="46"/>
+      <c r="I162" s="46"/>
+      <c r="J162" s="46"/>
+      <c r="K162" s="46"/>
+      <c r="L162" s="46"/>
+      <c r="M162" s="46"/>
+      <c r="N162" s="46"/>
+      <c r="O162" s="46"/>
+      <c r="P162" s="46"/>
+      <c r="Q162" s="46"/>
+      <c r="R162" s="46"/>
+      <c r="S162" s="46"/>
+      <c r="T162" s="46"/>
     </row>
     <row r="163" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="60"/>
-      <c r="B163" s="60"/>
-      <c r="C163" s="60"/>
-      <c r="D163" s="60"/>
-      <c r="E163" s="60"/>
-      <c r="F163" s="60"/>
-      <c r="G163" s="60"/>
-      <c r="H163" s="60"/>
-      <c r="I163" s="60"/>
-      <c r="J163" s="60"/>
-      <c r="K163" s="60"/>
-      <c r="L163" s="60"/>
-      <c r="M163" s="60"/>
-      <c r="N163" s="60"/>
-      <c r="O163" s="60"/>
-      <c r="P163" s="60"/>
-      <c r="Q163" s="60"/>
-      <c r="R163" s="60"/>
-      <c r="S163" s="60"/>
-      <c r="T163" s="60"/>
+      <c r="A163" s="46"/>
+      <c r="B163" s="46"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="46"/>
+      <c r="F163" s="46"/>
+      <c r="G163" s="46"/>
+      <c r="H163" s="46"/>
+      <c r="I163" s="46"/>
+      <c r="J163" s="46"/>
+      <c r="K163" s="46"/>
+      <c r="L163" s="46"/>
+      <c r="M163" s="46"/>
+      <c r="N163" s="46"/>
+      <c r="O163" s="46"/>
+      <c r="P163" s="46"/>
+      <c r="Q163" s="46"/>
+      <c r="R163" s="46"/>
+      <c r="S163" s="46"/>
+      <c r="T163" s="46"/>
     </row>
     <row r="164" spans="1:20" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="61" t="s">
+      <c r="A164" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B164" s="61"/>
-      <c r="C164" s="61"/>
-      <c r="D164" s="61"/>
-      <c r="E164" s="61"/>
-      <c r="F164" s="61"/>
-      <c r="G164" s="61"/>
-      <c r="H164" s="61"/>
-      <c r="I164" s="61"/>
-      <c r="J164" s="61"/>
-      <c r="K164" s="61"/>
-      <c r="L164" s="61"/>
-      <c r="M164" s="61"/>
-      <c r="N164" s="61"/>
-      <c r="O164" s="61"/>
-      <c r="P164" s="61"/>
-      <c r="Q164" s="61"/>
-      <c r="R164" s="61"/>
-      <c r="S164" s="61"/>
-      <c r="T164" s="61"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47"/>
+      <c r="I164" s="47"/>
+      <c r="J164" s="47"/>
+      <c r="K164" s="47"/>
+      <c r="L164" s="47"/>
+      <c r="M164" s="47"/>
+      <c r="N164" s="47"/>
+      <c r="O164" s="47"/>
+      <c r="P164" s="47"/>
+      <c r="Q164" s="47"/>
+      <c r="R164" s="47"/>
+      <c r="S164" s="47"/>
+      <c r="T164" s="47"/>
     </row>
     <row r="165" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="61"/>
-      <c r="B165" s="61"/>
-      <c r="C165" s="61"/>
-      <c r="D165" s="61"/>
-      <c r="E165" s="61"/>
-      <c r="F165" s="61"/>
-      <c r="G165" s="61"/>
-      <c r="H165" s="61"/>
-      <c r="I165" s="61"/>
-      <c r="J165" s="61"/>
-      <c r="K165" s="61"/>
-      <c r="L165" s="61"/>
-      <c r="M165" s="61"/>
-      <c r="N165" s="61"/>
-      <c r="O165" s="61"/>
-      <c r="P165" s="61"/>
-      <c r="Q165" s="61"/>
-      <c r="R165" s="61"/>
-      <c r="S165" s="61"/>
-      <c r="T165" s="61"/>
+      <c r="A165" s="47"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="47"/>
+      <c r="I165" s="47"/>
+      <c r="J165" s="47"/>
+      <c r="K165" s="47"/>
+      <c r="L165" s="47"/>
+      <c r="M165" s="47"/>
+      <c r="N165" s="47"/>
+      <c r="O165" s="47"/>
+      <c r="P165" s="47"/>
+      <c r="Q165" s="47"/>
+      <c r="R165" s="47"/>
+      <c r="S165" s="47"/>
+      <c r="T165" s="47"/>
     </row>
     <row r="166" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="61"/>
-      <c r="B166" s="61"/>
-      <c r="C166" s="61"/>
-      <c r="D166" s="61"/>
-      <c r="E166" s="61"/>
-      <c r="F166" s="61"/>
-      <c r="G166" s="61"/>
-      <c r="H166" s="61"/>
-      <c r="I166" s="61"/>
-      <c r="J166" s="61"/>
-      <c r="K166" s="61"/>
-      <c r="L166" s="61"/>
-      <c r="M166" s="61"/>
-      <c r="N166" s="61"/>
-      <c r="O166" s="61"/>
-      <c r="P166" s="61"/>
-      <c r="Q166" s="61"/>
-      <c r="R166" s="61"/>
-      <c r="S166" s="61"/>
-      <c r="T166" s="61"/>
+      <c r="A166" s="47"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="47"/>
+      <c r="D166" s="47"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="47"/>
+      <c r="H166" s="47"/>
+      <c r="I166" s="47"/>
+      <c r="J166" s="47"/>
+      <c r="K166" s="47"/>
+      <c r="L166" s="47"/>
+      <c r="M166" s="47"/>
+      <c r="N166" s="47"/>
+      <c r="O166" s="47"/>
+      <c r="P166" s="47"/>
+      <c r="Q166" s="47"/>
+      <c r="R166" s="47"/>
+      <c r="S166" s="47"/>
+      <c r="T166" s="47"/>
     </row>
     <row r="167" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="61"/>
-      <c r="B167" s="61"/>
-      <c r="C167" s="61"/>
-      <c r="D167" s="61"/>
-      <c r="E167" s="61"/>
-      <c r="F167" s="61"/>
-      <c r="G167" s="61"/>
-      <c r="H167" s="61"/>
-      <c r="I167" s="61"/>
-      <c r="J167" s="61"/>
-      <c r="K167" s="61"/>
-      <c r="L167" s="61"/>
-      <c r="M167" s="61"/>
-      <c r="N167" s="61"/>
-      <c r="O167" s="61"/>
-      <c r="P167" s="61"/>
-      <c r="Q167" s="61"/>
-      <c r="R167" s="61"/>
-      <c r="S167" s="61"/>
-      <c r="T167" s="61"/>
+      <c r="A167" s="47"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="47"/>
+      <c r="I167" s="47"/>
+      <c r="J167" s="47"/>
+      <c r="K167" s="47"/>
+      <c r="L167" s="47"/>
+      <c r="M167" s="47"/>
+      <c r="N167" s="47"/>
+      <c r="O167" s="47"/>
+      <c r="P167" s="47"/>
+      <c r="Q167" s="47"/>
+      <c r="R167" s="47"/>
+      <c r="S167" s="47"/>
+      <c r="T167" s="47"/>
     </row>
     <row r="168" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="61" t="s">
+      <c r="A168" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B168" s="61"/>
-      <c r="C168" s="61"/>
-      <c r="D168" s="61"/>
-      <c r="E168" s="61"/>
-      <c r="F168" s="61"/>
-      <c r="G168" s="61"/>
-      <c r="H168" s="61"/>
-      <c r="I168" s="61"/>
-      <c r="J168" s="61"/>
-      <c r="K168" s="61"/>
-      <c r="L168" s="61"/>
-      <c r="M168" s="61"/>
-      <c r="N168" s="61"/>
-      <c r="O168" s="61"/>
-      <c r="P168" s="61"/>
-      <c r="Q168" s="61"/>
-      <c r="R168" s="61"/>
-      <c r="S168" s="61"/>
-      <c r="T168" s="61"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="47"/>
+      <c r="I168" s="47"/>
+      <c r="J168" s="47"/>
+      <c r="K168" s="47"/>
+      <c r="L168" s="47"/>
+      <c r="M168" s="47"/>
+      <c r="N168" s="47"/>
+      <c r="O168" s="47"/>
+      <c r="P168" s="47"/>
+      <c r="Q168" s="47"/>
+      <c r="R168" s="47"/>
+      <c r="S168" s="47"/>
+      <c r="T168" s="47"/>
     </row>
     <row r="169" spans="1:20" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A169" s="61"/>
-      <c r="B169" s="61"/>
-      <c r="C169" s="61"/>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="61"/>
-      <c r="L169" s="61"/>
-      <c r="M169" s="61"/>
-      <c r="N169" s="61"/>
-      <c r="O169" s="61"/>
-      <c r="P169" s="61"/>
-      <c r="Q169" s="61"/>
-      <c r="R169" s="61"/>
-      <c r="S169" s="61"/>
-      <c r="T169" s="61"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="47"/>
+      <c r="I169" s="47"/>
+      <c r="J169" s="47"/>
+      <c r="K169" s="47"/>
+      <c r="L169" s="47"/>
+      <c r="M169" s="47"/>
+      <c r="N169" s="47"/>
+      <c r="O169" s="47"/>
+      <c r="P169" s="47"/>
+      <c r="Q169" s="47"/>
+      <c r="R169" s="47"/>
+      <c r="S169" s="47"/>
+      <c r="T169" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A160:T163"/>
-    <mergeCell ref="A164:T167"/>
-    <mergeCell ref="A168:T169"/>
-    <mergeCell ref="A44:A62"/>
-    <mergeCell ref="A63:A81"/>
-    <mergeCell ref="A82:A100"/>
-    <mergeCell ref="A101:A119"/>
-    <mergeCell ref="A120:A138"/>
-    <mergeCell ref="A139:A157"/>
     <mergeCell ref="A25:A43"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A3:B4"/>
@@ -12010,6 +12079,16 @@
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="A6:A24"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A160:T163"/>
+    <mergeCell ref="A164:T167"/>
+    <mergeCell ref="A168:T169"/>
+    <mergeCell ref="A44:A62"/>
+    <mergeCell ref="A63:A81"/>
+    <mergeCell ref="A82:A100"/>
+    <mergeCell ref="A101:A119"/>
+    <mergeCell ref="A120:A138"/>
+    <mergeCell ref="A139:A157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
